--- a/resources/Table.xlsx
+++ b/resources/Table.xlsx
@@ -16,10 +16,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -38,9 +43,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -257,7 +265,41 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>